--- a/final/part2Data/bad-samples/CNN-result.xlsx
+++ b/final/part2Data/bad-samples/CNN-result.xlsx
@@ -43,142 +43,142 @@
     <t>1.jpg</t>
   </si>
   <si>
-    <t>43424444</t>
-  </si>
-  <si>
-    <t>444444444334344044</t>
+    <t>15352057</t>
+  </si>
+  <si>
+    <t>441426199893010016</t>
   </si>
   <si>
     <t>2.jpg</t>
   </si>
   <si>
-    <t>244444153</t>
-  </si>
-  <si>
-    <t>52057441426</t>
-  </si>
-  <si>
-    <t>199893010016159890</t>
+    <t>153543002</t>
+  </si>
+  <si>
+    <t>15531336318</t>
+  </si>
+  <si>
+    <t>143701199012011319</t>
   </si>
   <si>
     <t>3.jpg</t>
   </si>
   <si>
-    <t>44420153</t>
-  </si>
-  <si>
-    <t>54300215531</t>
-  </si>
-  <si>
-    <t>336318143701199012</t>
+    <t>16340022</t>
+  </si>
+  <si>
+    <t>13060520009</t>
+  </si>
+  <si>
+    <t>445102199811111001</t>
   </si>
   <si>
     <t>4.jpg</t>
   </si>
   <si>
-    <t>0113191</t>
-  </si>
-  <si>
-    <t>63400221</t>
-  </si>
-  <si>
-    <t>30605200094</t>
+    <t>9834484</t>
+  </si>
+  <si>
+    <t>16340044</t>
+  </si>
+  <si>
+    <t>13322632720</t>
   </si>
   <si>
     <t>5.jpg</t>
   </si>
   <si>
-    <t>45102199</t>
-  </si>
-  <si>
-    <t>8111110011</t>
-  </si>
-  <si>
-    <t>354000013064750001</t>
+    <t>16340050</t>
+  </si>
+  <si>
+    <t>1342273619</t>
+  </si>
+  <si>
+    <t>441002197603183659</t>
   </si>
   <si>
     <t>6.jpg</t>
   </si>
   <si>
-    <t>45510319</t>
-  </si>
-  <si>
-    <t>991122451149</t>
-  </si>
-  <si>
-    <t>834484163400441332</t>
+    <t>16390090</t>
+  </si>
+  <si>
+    <t>135090582299</t>
+  </si>
+  <si>
+    <t>440661199608032019</t>
   </si>
   <si>
     <t>7.jpg</t>
   </si>
   <si>
-    <t>26327204</t>
-  </si>
-  <si>
-    <t>41602199808</t>
-  </si>
-  <si>
-    <t>230419163400501342</t>
+    <t>16340144</t>
+  </si>
+  <si>
+    <t>18022581694</t>
+  </si>
+  <si>
+    <t>445202199712068339</t>
   </si>
   <si>
     <t>8.jpg</t>
   </si>
   <si>
-    <t>27361944</t>
-  </si>
-  <si>
-    <t>100219760318</t>
-  </si>
-  <si>
-    <t>365916390090135090</t>
+    <t>16340178</t>
+  </si>
+  <si>
+    <t>154626166529</t>
+  </si>
+  <si>
+    <t>522101199801155711</t>
   </si>
   <si>
     <t>9.jpg</t>
   </si>
   <si>
-    <t>58229944</t>
-  </si>
-  <si>
-    <t>066119960803</t>
-  </si>
-  <si>
-    <t>20191634014418022</t>
+    <t>16390219</t>
+  </si>
+  <si>
+    <t>154920804195</t>
+  </si>
+  <si>
+    <t>44080219961012151</t>
   </si>
   <si>
     <t>10.jpg</t>
   </si>
   <si>
-    <t>58169444</t>
-  </si>
-  <si>
-    <t>52021997120</t>
-  </si>
-  <si>
-    <t>683391634017815462</t>
+    <t>76340228</t>
+  </si>
+  <si>
+    <t>13129229664</t>
+  </si>
+  <si>
+    <t>441202194710281065</t>
   </si>
   <si>
     <t>11.jpg</t>
   </si>
   <si>
-    <t>61665295</t>
-  </si>
-  <si>
-    <t>22101199801</t>
-  </si>
-  <si>
-    <t>15571116390219154</t>
+    <t>16340260</t>
+  </si>
+  <si>
+    <t>15976482106</t>
+  </si>
+  <si>
+    <t>45078199802306633</t>
   </si>
   <si>
     <t>12.jpg</t>
   </si>
   <si>
-    <t>920804195440</t>
-  </si>
-  <si>
-    <t>80219961012</t>
-  </si>
-  <si>
-    <t>15147634022813129</t>
+    <t>424142048495</t>
+  </si>
+  <si>
+    <t>40516341024</t>
+  </si>
+  <si>
+    <t>73044115626264024</t>
   </si>
 </sst>
 </file>
